--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C923E2-9586-4E24-A328-0B3E492E6923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19673AC7-BD3A-44E1-A0E0-5E788CB4BF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t>TestCases</t>
   </si>
@@ -298,22 +298,13 @@
     <t>newtest3@gmail.com</t>
   </si>
   <si>
-    <t>Jabulile</t>
-  </si>
-  <si>
     <t>Zwikhodo</t>
   </si>
   <si>
-    <t>Data1</t>
-  </si>
-  <si>
-    <t>Data2</t>
-  </si>
-  <si>
-    <t>Data4</t>
-  </si>
-  <si>
-    <t>data4</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>znemadodzi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -443,7 +434,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,13 +443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -838,52 +826,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -979,7 +967,7 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1010,12 +998,12 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1077,9 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1091,23 +1077,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1121,40 +1107,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDF63F9-0AD9-43DD-8A1F-FAEEC04E5BC1}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="21.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{62CFD5A8-4A41-4552-9EA8-AB25A506D081}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1175,7 +1160,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1199,24 +1184,24 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1234,12 +1219,12 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1276,190 +1261,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>83</v>
       </c>
     </row>
